--- a/Task List (pour faire plaisir à Olivier).xlsx
+++ b/Task List (pour faire plaisir à Olivier).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Tâche</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Python</t>
   </si>
   <si>
+    <t>Partial</t>
+  </si>
+  <si>
     <t>Load Properties</t>
   </si>
   <si>
@@ -127,13 +130,22 @@
     <t>Ctrl-C pour quitter le programme</t>
   </si>
   <si>
+    <t>Affichage windows</t>
+  </si>
+  <si>
+    <t>Fix affichage UTF-8 windows (CP12-52)</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>Test Unit</t>
-  </si>
-  <si>
-    <t>Partial</t>
   </si>
   <si>
     <t>NextChoice Test</t>
@@ -146,12 +158,6 @@
   </si>
   <si>
     <t>Fail =&gt;  effet de bord</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Test Get Global Value</t>
@@ -917,7 +923,7 @@
         <v>75</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -944,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="10">
@@ -984,7 +990,7 @@
         <v>1.0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="10">
@@ -1024,7 +1030,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="10">
@@ -1064,7 +1070,7 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="10">
@@ -1104,7 +1110,7 @@
         <v>4.0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="10">
@@ -1144,7 +1150,7 @@
         <v>5.0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="10">
@@ -1184,7 +1190,7 @@
         <v>6.0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="10">
@@ -1224,7 +1230,7 @@
         <v>7.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="10">
@@ -1264,10 +1270,10 @@
         <v>8.0</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="10">
         <v>1.0</v>
@@ -1305,12 +1311,24 @@
       <c r="A27" s="1">
         <v>9.0</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1361,10 +1379,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -1380,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -1407,10 +1425,10 @@
         <v>0.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" s="10">
         <v>1.0</v>
@@ -1449,22 +1467,22 @@
         <v>1.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
@@ -1491,10 +1509,10 @@
         <v>2.0</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D32" s="11">
         <v>1.0</v>
@@ -1533,10 +1551,10 @@
         <v>3.0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" s="10">
         <v>1.0</v>

--- a/Task List (pour faire plaisir à Olivier).xlsx
+++ b/Task List (pour faire plaisir à Olivier).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>Tâche</t>
   </si>
@@ -171,6 +171,12 @@
   <si>
     <t>Vérifie l'assignation d'une variable globale dans le scénario</t>
   </si>
+  <si>
+    <t>Type Check</t>
+  </si>
+  <si>
+    <t>Vérification des types statiques avec le module mypy + ajout des types</t>
+  </si>
 </sst>
 </file>
 
@@ -1589,13 +1595,27 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
